--- a/biology/Histoire de la zoologie et de la botanique/Gareth_Jon_Nelson/Gareth_Jon_Nelson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gareth_Jon_Nelson/Gareth_Jon_Nelson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gareth (« Gary ») Jon Nelson, né le 23 décembre 1937 à Chicago dans l'Illinois, est un zoologiste et ichtyologiste américain, résidant en Australie[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gareth (« Gary ») Jon Nelson, né le 23 décembre 1937 à Chicago dans l'Illinois, est un zoologiste et ichtyologiste américain, résidant en Australie,.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1967 à 1998, il est curateur émérite au Département d'Ichtyologie du Muséum américain d'histoire naturelle (AMNH), à New York[3],[2], où il est réputé comme biogéographe[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1967 à 1998, il est curateur émérite au Département d'Ichtyologie du Muséum américain d'histoire naturelle (AMNH), à New York où il est réputé comme biogéographe.
 Nelson est membre de la Willi Hennig Society (en) (fondée en 1980). En collaboration avec l'arachnologiste Norman I. Platnick, il contribue à la systématique cladistique dans ses relations avec la biogéographie de la vicariance des espèces. 
-À ce titre, Nelson figure parmi les fondateurs de la biogéographie de la vicariance, méthode d'analyse de la biogéographie historique[5].
-Il appartient au courant « pattern » de l'école de systématique cladistique[6].
-Après son départ à la retraite du Muséum américain d'histoire naturelle, il réside en Australie où il est associé professionnel à l’École de Botanique de l'Université de Melbourne et associé honoraire en ichtyologie au Museum victoria de Melbourne[2].
+À ce titre, Nelson figure parmi les fondateurs de la biogéographie de la vicariance, méthode d'analyse de la biogéographie historique.
+Il appartient au courant « pattern » de l'école de systématique cladistique.
+Après son départ à la retraite du Muséum américain d'histoire naturelle, il réside en Australie où il est associé professionnel à l’École de Botanique de l'Université de Melbourne et associé honoraire en ichtyologie au Museum victoria de Melbourne.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Gareth Nelson et Norman Platnick, Systematics and Biogeography : Cladistics and Vicariance, New York, Columbia University Press, 1981, xi + 567 (ISBN 0-231-04574-3, OCLC 299405013, SUDOC 022831509).</t>
         </is>
